--- a/AzentioAutomationFramework_ExcelKUBS_Kamalapriya4_Updated/Test-data/KUBSTestData.xlsx
+++ b/AzentioAutomationFramework_ExcelKUBS_Kamalapriya4_Updated/Test-data/KUBSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12345" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12345" firstSheet="15" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="KUBS_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="FixedAsset_AssetReValuation" sheetId="17" r:id="rId17"/>
     <sheet name="FixedAsset_AssetReplacement" sheetId="18" r:id="rId18"/>
     <sheet name="FixedAsset_AssetTransfer" sheetId="19" r:id="rId19"/>
+    <sheet name="DepreciationReport" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="649">
   <si>
     <t>Stage</t>
   </si>
@@ -1941,6 +1942,45 @@
   </si>
   <si>
     <t>KUBS_FAT_UAT_013_012</t>
+  </si>
+  <si>
+    <t>Furniture and fixtures-25-2-19102022</t>
+  </si>
+  <si>
+    <t>KUBS_FAT_UAT_013_009</t>
+  </si>
+  <si>
+    <t>KUBS_FAT_UAT_013_009_D1</t>
+  </si>
+  <si>
+    <t>KUBS_FAT_UAT_013_010</t>
+  </si>
+  <si>
+    <t>KUBS_FAT_UAT_013_010_D1</t>
+  </si>
+  <si>
+    <t>KUBS_FAT_UAT_013_003</t>
+  </si>
+  <si>
+    <t>KUBS_FAT_UAT_013_003_D1</t>
+  </si>
+  <si>
+    <t>East Zone</t>
+  </si>
+  <si>
+    <t>DepreciationBranch</t>
+  </si>
+  <si>
+    <t>DepreciationYear</t>
+  </si>
+  <si>
+    <t>Half-Yearly</t>
+  </si>
+  <si>
+    <t>KUBS_FAT_UAT_013_004</t>
+  </si>
+  <si>
+    <t>KUBS_FAT_UAT_013_004_D1</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2175,6 +2215,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2623,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6274,10 +6316,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6950,6 +6992,45 @@
         <v>222</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" s="4">
+        <v>12</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="J17" s="4">
+        <v>26</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2024</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>223</v>
       </c>
     </row>
@@ -8106,10 +8187,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8773,6 +8854,24 @@
       <c r="M19" s="28"/>
       <c r="N19" s="28"/>
       <c r="O19" s="28"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="M20" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8964,6 +9063,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>643</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>646</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9415,10 +9563,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9850,21 +9998,68 @@
         <v>152</v>
       </c>
     </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="B10" s="36"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F11">
       <formula1>"Cost Model,Reval Model,Reval Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9 G11">
       <formula1>"Month,TEST1,Year"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I9 I11">
       <formula1>"ASSET COST,Asset Cost Minus Salvage Value"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J9 J11">
       <formula1>"SLM,SYD,WDV"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K9 K11">
       <formula1>"Bank,Currency"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9876,7 +10071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
